--- a/data_year/zb/资源和环境/自然保护基本情况.xlsx
+++ b/data_year/zb/资源和环境/自然保护基本情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,350 +463,236 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="C2" t="n">
-        <v>8871.299999999999</v>
+        <v>9267.6</v>
       </c>
       <c r="D2" t="n">
-        <v>2194</v>
+        <v>2588</v>
       </c>
       <c r="E2" t="n">
-        <v>14.81</v>
+        <v>14.9</v>
       </c>
       <c r="F2" t="n">
-        <v>14822.8</v>
+        <v>14944</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>243</v>
+        <v>335</v>
       </c>
       <c r="C3" t="n">
-        <v>8898.9</v>
+        <v>9315.268400000001</v>
       </c>
       <c r="D3" t="n">
-        <v>2349</v>
+        <v>2640</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>14.93</v>
       </c>
       <c r="F3" t="n">
-        <v>14994.9</v>
+        <v>14971.1464</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>265</v>
+        <v>363</v>
       </c>
       <c r="C4" t="n">
-        <v>9169.700000000001</v>
+        <v>9414.564</v>
       </c>
       <c r="D4" t="n">
-        <v>2395</v>
+        <v>2669</v>
       </c>
       <c r="E4" t="n">
-        <v>15.8</v>
+        <v>14.9</v>
       </c>
       <c r="F4" t="n">
-        <v>15153.504</v>
+        <v>14979</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>303</v>
+        <v>407</v>
       </c>
       <c r="C5" t="n">
-        <v>9365.5782</v>
+        <v>9403.9262</v>
       </c>
       <c r="D5" t="n">
-        <v>2531</v>
+        <v>2697</v>
       </c>
       <c r="E5" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="F5" t="n">
-        <v>15188</v>
+        <v>14631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>303</v>
+        <v>428</v>
       </c>
       <c r="C6" t="n">
-        <v>9120.287399999999</v>
+        <v>9651.6325</v>
       </c>
       <c r="D6" t="n">
-        <v>2538</v>
-      </c>
-      <c r="E6" t="n">
-        <v>14.9</v>
-      </c>
+        <v>2729</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>14894</v>
+        <v>14699.1506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>319</v>
+        <v>428</v>
       </c>
       <c r="C7" t="n">
-        <v>9267.110000000001</v>
+        <v>9648.8321</v>
       </c>
       <c r="D7" t="n">
-        <v>2541</v>
-      </c>
-      <c r="E7" t="n">
-        <v>14.7</v>
-      </c>
+        <v>2740</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>14775</v>
+        <v>14703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>319</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9267.6</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>2588</v>
+        <v>2750</v>
       </c>
       <c r="E8" t="n">
-        <v>14.9</v>
+        <v>14.88</v>
       </c>
       <c r="F8" t="n">
-        <v>14944</v>
+        <v>14733.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>335</v>
+        <v>463</v>
       </c>
       <c r="C9" t="n">
-        <v>9315.268400000001</v>
+        <v>9745.1579</v>
       </c>
       <c r="D9" t="n">
-        <v>2640</v>
+        <v>2750</v>
       </c>
       <c r="E9" t="n">
-        <v>14.93</v>
+        <v>14.2871467236954</v>
       </c>
       <c r="F9" t="n">
-        <v>14971.1464</v>
+        <v>14716.727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>363</v>
+        <v>474</v>
       </c>
       <c r="C10" t="n">
-        <v>9414.564</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2669</v>
-      </c>
-      <c r="E10" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F10" t="n">
-        <v>14979</v>
-      </c>
+        <v>9860.92</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>407</v>
+        <v>474</v>
       </c>
       <c r="C11" t="n">
-        <v>9403.9262</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2697</v>
-      </c>
-      <c r="E11" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F11" t="n">
-        <v>14631</v>
-      </c>
+        <v>9811.41</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="C12" t="n">
-        <v>9651.6325</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2729</v>
-      </c>
+        <v>9821.27</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>14699.1506</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="C13" t="n">
-        <v>9648.8321</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2740</v>
-      </c>
+        <v>9821.280000000001</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>14703</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>446</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>2750</v>
-      </c>
-      <c r="E14" t="n">
-        <v>14.88</v>
-      </c>
-      <c r="F14" t="n">
-        <v>14733.2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>463</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>2750</v>
-      </c>
-      <c r="E15" t="n">
-        <v>14.2871467236954</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14716.727</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>474</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9860.92</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>474</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9811.41</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>474</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9821.27</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
